--- a/data/Multi_Asset_Portfolio_Analysis_Manual.xlsx
+++ b/data/Multi_Asset_Portfolio_Analysis_Manual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdjhs\git\ws_fn\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GCC\git\ws_fn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F817A21-18D5-4D83-8D53-E8EB7CF32AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60997A-1E95-4A59-8078-E5100D412D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>1. 목표 정의</t>
   </si>
@@ -145,6 +145,14 @@
   </si>
   <si>
     <t>TTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -358,43 +366,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,220 +714,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EBB885-F3FF-49BE-9AB9-37465CD622B9}">
   <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.8125" style="1"/>
-    <col min="2" max="2" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.8125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.8125" style="1"/>
+    <col min="4" max="4" width="23.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B3" s="6" t="s">
+      <c r="G2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B4" s="6" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B5" s="16" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B6" s="16"/>
-      <c r="C6" s="13"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="14"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B7" s="16"/>
-      <c r="C7" s="13"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="16"/>
-      <c r="C8" s="13"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="14"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B9" s="16"/>
-      <c r="C9" s="13" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B10" s="16"/>
-      <c r="C10" s="13"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B11" s="16"/>
-      <c r="C11" s="13"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B12" s="16"/>
-      <c r="C12" s="13" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="16"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="G12" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="16"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B15" s="16"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B16" s="16"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="G15" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B17" s="16"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B18" s="16"/>
-      <c r="C18" s="13"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="14"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B19" s="6" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2"/>
@@ -924,178 +962,206 @@
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B20" s="17" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B21" s="17"/>
-      <c r="C21" s="13"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="15"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B22" s="17"/>
-      <c r="C22" s="13"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="15"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B23" s="17"/>
-      <c r="C23" s="13"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B24" s="17"/>
-      <c r="C24" s="13" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="15"/>
+      <c r="C24" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B25" s="17"/>
-      <c r="C25" s="13"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B26" s="17"/>
-      <c r="C26" s="13"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="15"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B27" s="17"/>
-      <c r="C27" s="13" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="15"/>
+      <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B28" s="17"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="G27" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="15"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B29" s="17"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="15"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B30" s="17"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="15"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B31" s="17"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="G30" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="15"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.6">
-      <c r="B32" s="17"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="15"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.6">
-      <c r="B33" s="17"/>
-      <c r="C33" s="13"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="15"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B34" s="9" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
